--- a/data/Datos AlohAndes0/Operadores/OperadorHotel_Hostal_cityu.xlsx
+++ b/data/Datos AlohAndes0/Operadores/OperadorHotel_Hostal_cityu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianoliveros/Desktop/Sistemas Transaccionales/proyecto alhoanades/Operadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianoliveros/Desktop/Sistemas Transaccionales/proyecto alhoanades/ProyectoAlhoandes/AlohAndes/data/Datos AlohAndes0/Operadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A03B1D9-EA8E-EA4B-A23A-2AAA8643CDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEDD3B8-D1A6-ED46-88FF-B0CF51B302B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>Hotel</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Hotel el Dorado</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -104,18 +98,12 @@
     <t>Hotel Santa Monica</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>Hotel la Sabana</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>Hotel BD Bacata</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>Hostel Frailejon</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -167,9 +149,6 @@
     <t>Hostel Chocolate</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -182,9 +161,6 @@
     <t>Hostel Villacandelaria</t>
   </si>
   <si>
-    <t>3.7</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -209,16 +185,10 @@
     <t>Hostel Astromelia</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
     <t>Hostel Mola</t>
-  </si>
-  <si>
-    <t>4.2</t>
   </si>
   <si>
     <t>23</t>
@@ -234,8 +204,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -263,8 +244,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,19 +591,20 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,14 +617,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -652,451 +637,451 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F24" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
